--- a/biology/Zoologie/Eunica_sydonia/Eunica_sydonia.xlsx
+++ b/biology/Zoologie/Eunica_sydonia/Eunica_sydonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica sydonia est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Eunica.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica sydonia a été décrite par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis sydonia[1].
-Noms vernaculaires
-Eunica sydonia se nomme Godart's Purplewing en anglais et  Eunica sydonia caressa Plain Purplewing[2],[3].
-Sous-espèces
- Eunica sydonia sydonia présent au Venezuela, en Colombie, au Brésil, et au Surinam.
- Eunica sydonia caressa (Hewitson, 1857);  présent au Guatemala, en Colombie et au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sydonia a été décrite par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis sydonia.
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunica sydonia se nomme Godart's Purplewing en anglais et  Eunica sydonia caressa Plain Purplewing,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sydonia sydonia présent au Venezuela, en Colombie, au Brésil, et au Surinam.
+ Eunica sydonia caressa (Hewitson, 1857);  présent au Guatemala, en Colombie et au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica sydonia est un papillon au dessus des ailes chez le mâle marron à noir avec une large plage bleu vif à violet vif métallisé alors que chez la femelle le dessus des ailes est marron avec aux ailes antérieures des taches blanches formant une ligne séparant l'apex.
 Le revers est de couleur ocre à violine plus ou moins foncé.
@@ -554,70 +640,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Eunica_sydonia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eunica_sydonia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica sydonia est présent au Mexique, à Panama, au Costa Rica, au Venezuela, au Guatemala, en Colombie, au Pérou, au Brésil, et au Surinam[1],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sydonia est présent au Mexique, à Panama, au Costa Rica, au Venezuela, au Guatemala, en Colombie, au Pérou, au Brésil, et au Surinam,.
 Sur les autres projets Wikimedia :
 Eunica sydonia, sur Wikimedia CommonsEunica sydonia, sur Wikispecies
-Biotope
-Il réside dans la forêt humide[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sydonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
